--- a/biology/Médecine/Semaine_européenne_de_la_vaccination/Semaine_européenne_de_la_vaccination.xlsx
+++ b/biology/Médecine/Semaine_européenne_de_la_vaccination/Semaine_européenne_de_la_vaccination.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Semaine_europ%C3%A9enne_de_la_vaccination</t>
+          <t>Semaine_européenne_de_la_vaccination</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Semaine européenne de la vaccination, créée en 2005 par l'Organisation mondiale de la santé - Europe, est un événement visant à sensibiliser à l'importance de la vaccination. En 2009, cet événement est mis en place par 34 pays européens.
 L'objectif est de rappeler à la population qu'il est important de se faire vacciner et de mettre à jour ses vaccinations. C'est aussi une occasion de répondre aux questions pratiques de la population sur cette question.
-Cet événement part du constat que la non-vaccination représente un risque individuel et collectif considérable, risque aisément évitable[1].
+Cet événement part du constat que la non-vaccination représente un risque individuel et collectif considérable, risque aisément évitable.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Semaine_europ%C3%A9enne_de_la_vaccination</t>
+          <t>Semaine_européenne_de_la_vaccination</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,12 @@
           <t>France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Ministère de la santé et des sports et l'Institut national de prévention et d'éducation pour la santé coordonnent l'événement [2].
-En 2009, en France, la rougeole en a été le thème national en raison de la recrudescence des cas constatés[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Ministère de la santé et des sports et l'Institut national de prévention et d'éducation pour la santé coordonnent l'événement .
+En 2009, en France, la rougeole en a été le thème national en raison de la recrudescence des cas constatés.
 </t>
         </is>
       </c>
